--- a/РГРТА(таблицы).xlsx
+++ b/РГРТА(таблицы).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="50">
   <si>
     <t>A</t>
   </si>
@@ -78,13 +78,109 @@
   </si>
   <si>
     <t>S6'</t>
+  </si>
+  <si>
+    <t>M7</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>1RG1</t>
+  </si>
+  <si>
+    <t>0LG2</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>0RG2</t>
+  </si>
+  <si>
+    <t>1SG0</t>
+  </si>
+  <si>
+    <t>M5</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>0RE2</t>
+  </si>
+  <si>
+    <t>0RE0(1)</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>1RE1</t>
+  </si>
+  <si>
+    <t>1SEO(2)</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>0RA1</t>
+  </si>
+  <si>
+    <t>1RA2</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>0SA0</t>
+  </si>
+  <si>
+    <t>M6</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>0LF1</t>
+  </si>
+  <si>
+    <t>1RF2</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>1RF1</t>
+  </si>
+  <si>
+    <t>0SF0</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>1SG1</t>
+  </si>
+  <si>
+    <t>0SF1</t>
+  </si>
+  <si>
+    <t>0SA1</t>
+  </si>
+  <si>
+    <t>MT16</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,6 +188,13 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -102,7 +205,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -125,13 +228,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -412,15 +582,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:G7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,7 +608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -458,7 +628,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -477,8 +647,17 @@
       <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -497,8 +676,17 @@
       <c r="G4" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -517,8 +705,17 @@
       <c r="G5" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="E6" s="1" t="s">
         <v>16</v>
       </c>
@@ -529,7 +726,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="E7" s="1" t="s">
         <v>17</v>
       </c>
@@ -540,7 +737,288 @@
         <v>15</v>
       </c>
     </row>
+    <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="F10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0</v>
+      </c>
+      <c r="L10" s="4">
+        <v>1</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" s="4">
+        <v>0</v>
+      </c>
+      <c r="P10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="F11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>